--- a/biology/Botanique/Aster_amellus/Aster_amellus.xlsx
+++ b/biology/Botanique/Aster_amellus/Aster_amellus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aster amelle
 L'Aster amelle ou Marguerite de la Saint-Michel (Aster amellus L.) est une espèce de plante à fleurs de la famille des Asteraceae et du genre Aster.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace d'une hauteur de 15 à 60 cm.
 La tige est dressée, souvent ramifiée vers le haut. Les feuilles sont entières, rugueuses et pubescentes. Les fleurs en tubes jaunes et les ligules bleu violacé.
@@ -544,7 +558,9 @@
           <t>Habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Étages collinéens et montagnards. Stations chaudes et sèches. Pelouses, clairières, lisières, talus, chemins.
 </t>
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Médioeuropéenne. France: Est, Centre. Absente de la région méditerranéenne.
 </t>
@@ -606,40 +624,12 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Aster amelle figure sur la Liste des espèces végétales protégées sur l'ensemble du territoire français métropolitain. Elle craint la densification des couverts.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Aster_amellus</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aster_amellus</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Taxonomie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Synonymes de l'aster amelle</t>
         </is>
       </c>
     </row>
